--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Not applicable</t>
+  </si>
+  <si>
+    <t>C0439673</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/umls</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,18 +600,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>52</v>
+      <c r="B5" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-PanelName.xlsx
+++ b/output/ValueSet-PanelName.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
